--- a/Messy Data Sample .xlsx
+++ b/Messy Data Sample .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\QA Docs\Desktop Courses\QADLFUND - Data Literacy Fundamentals\Exercise Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\my_qa_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA8EAAF-C1BF-492F-90D4-501637F47CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB29D902-6218-44AB-9E26-8B25A630F77B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29070" yWindow="645" windowWidth="27870" windowHeight="14505" xr2:uid="{65D4A02A-0F20-4F9E-972B-23CE08E7D936}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -522,7 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F17CA9-555E-46BA-8B48-FA77E17B919F}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
